--- a/数据库设计.xlsx
+++ b/数据库设计.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>PMS数据库设计</t>
   </si>
   <si>
-    <t>tb_user_info</t>
+    <t>tb_users</t>
   </si>
   <si>
     <t>列名</t>
@@ -88,7 +88,7 @@
     <t>外键</t>
   </si>
   <si>
-    <t>u_school_department</t>
+    <t>u_college_department</t>
   </si>
   <si>
     <t>计科</t>
@@ -133,10 +133,19 @@
     <t>u_remark</t>
   </si>
   <si>
+    <t>u_permission</t>
+  </si>
+  <si>
+    <t>0代表超级管理员，可以添加部门、职位；1代表部长，可以增加用户，2代表主管，3代表干事，只可以浏览自己的信息</t>
+  </si>
+  <si>
+    <t>tb_departments</t>
+  </si>
+  <si>
     <t>组织的所有部门</t>
   </si>
   <si>
-    <t>d_id</t>
+    <t>d_no</t>
   </si>
   <si>
     <t>d_name</t>
@@ -181,11 +190,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -201,15 +210,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,6 +240,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -239,6 +263,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -247,16 +279,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,7 +327,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,30 +347,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,29 +361,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -354,181 +371,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,21 +575,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -588,15 +590,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -622,16 +639,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -650,152 +667,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -816,6 +833,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1135,10 +1155,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1146,7 +1166,7 @@
     <col min="1" max="1" width="18.1111111111111" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.3333333333333" style="1" customWidth="1"/>
     <col min="3" max="4" width="13.5555555555556" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.4444444444444" style="2" customWidth="1"/>
+    <col min="5" max="5" width="105.888888888889" style="2" customWidth="1"/>
     <col min="7" max="8" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
@@ -1202,7 +1222,7 @@
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1397,45 +1417,50 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="1:1">
+      <c r="A19" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
@@ -1452,70 +1477,84 @@
         <v>47</v>
       </c>
       <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="2">
         <v>1</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="2">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>5</v>
       </c>
     </row>
